--- a/2023/Lec/Lec-09_Моделирование реактора изомеризации/scripts/results.xlsx
+++ b/2023/Lec/Lec-09_Моделирование реактора изомеризации/scripts/results.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Температура, К</t>
-  </si>
-  <si>
-    <t>Выход изомеризата, % масс.</t>
-  </si>
-  <si>
-    <t>Выход изоалканов, % масс.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,245 +420,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Температура, К</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выход изомеризата, % масс.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Выход изоалканов, % масс.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>350</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>99.49087913495221</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>35.60969467299091</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>357.8947368421053</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>98.93696945658307</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>36.66789509368716</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>365.7894736842105</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>98.00031921405285</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>38.85440018950668</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>373.6842105263158</v>
       </c>
-      <c r="B5">
-        <v>96.71048370761569</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>96.71048370761568</v>
+      </c>
+      <c r="C5" t="n">
         <v>42.84300903797509</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>381.578947368421</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>95.33059557697207</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>48.70455327872494</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>389.4736842105263</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>94.15323455683223</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>54.62794467619189</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>397.3684210526316</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>93.16922753607236</v>
       </c>
-      <c r="C8">
-        <v>58.20050678739806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="C8" t="n">
+        <v>58.20050678739809</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>405.2631578947368</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>92.06711604907679</v>
       </c>
-      <c r="C9">
-        <v>60.12866672550149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="C9" t="n">
+        <v>60.12866672550147</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>413.1578947368421</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>90.8560297368924</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>61.71909769580909</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>421.0526315789474</v>
       </c>
-      <c r="B11">
-        <v>90.40841145899255</v>
-      </c>
-      <c r="C11">
-        <v>63.41765545348538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="B11" t="n">
+        <v>90.40841145899252</v>
+      </c>
+      <c r="C11" t="n">
+        <v>63.41765545348535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>428.9473684210526</v>
       </c>
-      <c r="B12">
-        <v>90.38269310780387</v>
-      </c>
-      <c r="C12">
-        <v>64.89702861953189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="B12" t="n">
+        <v>90.38269310780389</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64.89702861953185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>436.8421052631579</v>
       </c>
-      <c r="B13">
-        <v>90.36314272206774</v>
-      </c>
-      <c r="C13">
-        <v>65.26701741210405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="B13" t="n">
+        <v>90.36314272206776</v>
+      </c>
+      <c r="C13" t="n">
+        <v>65.26701741210407</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>444.7368421052631</v>
       </c>
-      <c r="B14">
-        <v>90.3313770962819</v>
-      </c>
-      <c r="C14">
-        <v>65.02880688600861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="B14" t="n">
+        <v>90.33137709628191</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65.02880688600868</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>452.6315789473684</v>
       </c>
-      <c r="B15">
-        <v>90.27748496684545</v>
-      </c>
-      <c r="C15">
-        <v>64.71926500821827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="B15" t="n">
+        <v>90.27748496684542</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64.71926500821824</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>460.5263157894737</v>
       </c>
-      <c r="B16">
-        <v>90.19045194387442</v>
-      </c>
-      <c r="C16">
-        <v>64.47658715719643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="B16" t="n">
+        <v>90.19045194387444</v>
+      </c>
+      <c r="C16" t="n">
+        <v>64.47658715719645</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>468.421052631579</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>90.05856196081406</v>
       </c>
-      <c r="C17">
-        <v>64.26678988556495</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="C17" t="n">
+        <v>64.26678988556498</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>476.3157894736842</v>
       </c>
-      <c r="B18">
-        <v>89.86889238150513</v>
-      </c>
-      <c r="C18">
-        <v>64.0211146509442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="B18" t="n">
+        <v>89.86889238150512</v>
+      </c>
+      <c r="C18" t="n">
+        <v>64.02111465094418</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>484.2105263157895</v>
       </c>
-      <c r="B19">
-        <v>89.60837987906527</v>
-      </c>
-      <c r="C19">
-        <v>63.70559485102938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="B19" t="n">
+        <v>89.60837987906532</v>
+      </c>
+      <c r="C19" t="n">
+        <v>63.70559485102945</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>492.1052631578947</v>
       </c>
-      <c r="B20">
-        <v>89.26786198606131</v>
-      </c>
-      <c r="C20">
-        <v>63.30597487789454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="B20" t="n">
+        <v>89.26786198606142</v>
+      </c>
+      <c r="C20" t="n">
+        <v>63.30597487789464</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>500</v>
       </c>
-      <c r="B21">
-        <v>88.84578974714255</v>
-      </c>
-      <c r="C21">
-        <v>62.82213908862722</v>
+      <c r="B21" t="n">
+        <v>88.84578974714256</v>
+      </c>
+      <c r="C21" t="n">
+        <v>62.82213908862724</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/2023/Lec/Lec-09_Моделирование реактора изомеризации/scripts/results.xlsx
+++ b/2023/Lec/Lec-09_Моделирование реактора изомеризации/scripts/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,7 +488,7 @@
         <v>373.6842105263158</v>
       </c>
       <c r="B5" t="n">
-        <v>96.71048370761568</v>
+        <v>96.71048370761569</v>
       </c>
       <c r="C5" t="n">
         <v>42.84300903797509</v>
@@ -524,7 +524,7 @@
         <v>93.16922753607236</v>
       </c>
       <c r="C8" t="n">
-        <v>58.20050678739809</v>
+        <v>58.20050678739806</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>92.06711604907679</v>
       </c>
       <c r="C9" t="n">
-        <v>60.12866672550147</v>
+        <v>60.12866672550149</v>
       </c>
     </row>
     <row r="10">
@@ -554,10 +554,10 @@
         <v>421.0526315789474</v>
       </c>
       <c r="B11" t="n">
-        <v>90.40841145899252</v>
+        <v>90.40841145899255</v>
       </c>
       <c r="C11" t="n">
-        <v>63.41765545348535</v>
+        <v>63.41765545348538</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>428.9473684210526</v>
       </c>
       <c r="B12" t="n">
-        <v>90.38269310780389</v>
+        <v>90.38269310780387</v>
       </c>
       <c r="C12" t="n">
-        <v>64.89702861953185</v>
+        <v>64.89702861953189</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>436.8421052631579</v>
       </c>
       <c r="B13" t="n">
-        <v>90.36314272206776</v>
+        <v>90.36314272206774</v>
       </c>
       <c r="C13" t="n">
-        <v>65.26701741210407</v>
+        <v>65.26701741210405</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>444.7368421052631</v>
       </c>
       <c r="B14" t="n">
-        <v>90.33137709628191</v>
+        <v>90.3313770962819</v>
       </c>
       <c r="C14" t="n">
-        <v>65.02880688600868</v>
+        <v>65.02880688600861</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>452.6315789473684</v>
       </c>
       <c r="B15" t="n">
-        <v>90.27748496684542</v>
+        <v>90.27748496684545</v>
       </c>
       <c r="C15" t="n">
-        <v>64.71926500821824</v>
+        <v>64.71926500821827</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>460.5263157894737</v>
       </c>
       <c r="B16" t="n">
-        <v>90.19045194387444</v>
+        <v>90.19045194387442</v>
       </c>
       <c r="C16" t="n">
-        <v>64.47658715719645</v>
+        <v>64.47658715719643</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>90.05856196081406</v>
       </c>
       <c r="C17" t="n">
-        <v>64.26678988556498</v>
+        <v>64.26678988556495</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>476.3157894736842</v>
       </c>
       <c r="B18" t="n">
-        <v>89.86889238150512</v>
+        <v>89.86889238150513</v>
       </c>
       <c r="C18" t="n">
-        <v>64.02111465094418</v>
+        <v>64.0211146509442</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>484.2105263157895</v>
       </c>
       <c r="B19" t="n">
-        <v>89.60837987906532</v>
+        <v>89.60837987906527</v>
       </c>
       <c r="C19" t="n">
-        <v>63.70559485102945</v>
+        <v>63.70559485102938</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>492.1052631578947</v>
       </c>
       <c r="B20" t="n">
-        <v>89.26786198606142</v>
+        <v>89.26786198606131</v>
       </c>
       <c r="C20" t="n">
-        <v>63.30597487789464</v>
+        <v>63.30597487789454</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>500</v>
       </c>
       <c r="B21" t="n">
-        <v>88.84578974714256</v>
+        <v>88.84578974714255</v>
       </c>
       <c r="C21" t="n">
-        <v>62.82213908862724</v>
+        <v>62.82213908862722</v>
       </c>
     </row>
   </sheetData>

--- a/2023/Lec/Lec-09_Моделирование реактора изомеризации/scripts/results.xlsx
+++ b/2023/Lec/Lec-09_Моделирование реактора изомеризации/scripts/results.xlsx
@@ -463,211 +463,211 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>357.8947368421053</v>
+        <v>360.5263157894737</v>
       </c>
       <c r="B3" t="n">
-        <v>98.93696945658307</v>
+        <v>98.6703930789825</v>
       </c>
       <c r="C3" t="n">
-        <v>36.66789509368716</v>
+        <v>37.23765649180486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>365.7894736842105</v>
+        <v>371.0526315789474</v>
       </c>
       <c r="B4" t="n">
-        <v>98.00031921405285</v>
+        <v>97.16751866721395</v>
       </c>
       <c r="C4" t="n">
-        <v>38.85440018950668</v>
+        <v>41.2817304647724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>373.6842105263158</v>
+        <v>381.578947368421</v>
       </c>
       <c r="B5" t="n">
-        <v>96.71048370761569</v>
+        <v>95.33059557697207</v>
       </c>
       <c r="C5" t="n">
-        <v>42.84300903797509</v>
+        <v>48.70455327872494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>381.578947368421</v>
+        <v>392.1052631578947</v>
       </c>
       <c r="B6" t="n">
-        <v>95.33059557697207</v>
+        <v>93.81558823125306</v>
       </c>
       <c r="C6" t="n">
-        <v>48.70455327872494</v>
+        <v>56.12037058257236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>389.4736842105263</v>
+        <v>402.6315789473684</v>
       </c>
       <c r="B7" t="n">
-        <v>94.15323455683223</v>
+        <v>92.46493409506158</v>
       </c>
       <c r="C7" t="n">
-        <v>54.62794467619189</v>
+        <v>59.5499116895436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>397.3684210526316</v>
+        <v>413.1578947368421</v>
       </c>
       <c r="B8" t="n">
-        <v>93.16922753607236</v>
+        <v>90.8560297368924</v>
       </c>
       <c r="C8" t="n">
-        <v>58.20050678739806</v>
+        <v>61.71909769580909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>405.2631578947368</v>
+        <v>423.6842105263158</v>
       </c>
       <c r="B9" t="n">
-        <v>92.06711604907679</v>
+        <v>90.39423949660463</v>
       </c>
       <c r="C9" t="n">
-        <v>60.12866672550149</v>
+        <v>64.01453714607977</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>413.1578947368421</v>
+        <v>434.2105263157895</v>
       </c>
       <c r="B10" t="n">
-        <v>90.8560297368924</v>
+        <v>90.37057550134539</v>
       </c>
       <c r="C10" t="n">
-        <v>61.71909769580909</v>
+        <v>65.24907374598988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>421.0526315789474</v>
+        <v>444.7368421052632</v>
       </c>
       <c r="B11" t="n">
-        <v>90.40841145899255</v>
+        <v>90.33137709628187</v>
       </c>
       <c r="C11" t="n">
-        <v>63.41765545348538</v>
+        <v>65.02880688600855</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>428.9473684210526</v>
+        <v>455.2631578947369</v>
       </c>
       <c r="B12" t="n">
-        <v>90.38269310780387</v>
+        <v>90.25271419571482</v>
       </c>
       <c r="C12" t="n">
-        <v>64.89702861953189</v>
+        <v>64.6309104531736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>436.8421052631579</v>
+        <v>465.7894736842105</v>
       </c>
       <c r="B13" t="n">
-        <v>90.36314272206774</v>
+        <v>90.1082803414582</v>
       </c>
       <c r="C13" t="n">
-        <v>65.26701741210405</v>
+        <v>64.3376867722194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>444.7368421052631</v>
+        <v>476.3157894736842</v>
       </c>
       <c r="B14" t="n">
-        <v>90.3313770962819</v>
+        <v>89.86889238150512</v>
       </c>
       <c r="C14" t="n">
-        <v>65.02880688600861</v>
+        <v>64.0211146509442</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>452.6315789473684</v>
+        <v>486.8421052631579</v>
       </c>
       <c r="B15" t="n">
-        <v>90.27748496684545</v>
+        <v>89.50402011887097</v>
       </c>
       <c r="C15" t="n">
-        <v>64.71926500821827</v>
+        <v>63.58206479569088</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>460.5263157894737</v>
+        <v>497.3684210526316</v>
       </c>
       <c r="B16" t="n">
-        <v>90.19045194387442</v>
+        <v>88.99527478510389</v>
       </c>
       <c r="C16" t="n">
-        <v>64.47658715719643</v>
+        <v>62.99273332591171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>468.421052631579</v>
+        <v>507.8947368421053</v>
       </c>
       <c r="B17" t="n">
-        <v>90.05856196081406</v>
+        <v>88.34871917898647</v>
       </c>
       <c r="C17" t="n">
-        <v>64.26678988556495</v>
+        <v>62.26309478100245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>476.3157894736842</v>
+        <v>518.421052631579</v>
       </c>
       <c r="B18" t="n">
-        <v>89.86889238150513</v>
+        <v>87.58368267369403</v>
       </c>
       <c r="C18" t="n">
-        <v>64.0211146509442</v>
+        <v>61.4234361443817</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>484.2105263157895</v>
+        <v>528.9473684210527</v>
       </c>
       <c r="B19" t="n">
-        <v>89.60837987906527</v>
+        <v>86.68290449396542</v>
       </c>
       <c r="C19" t="n">
-        <v>63.70559485102938</v>
+        <v>60.4585073715843</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>492.1052631578947</v>
+        <v>539.4736842105264</v>
       </c>
       <c r="B20" t="n">
-        <v>89.26786198606131</v>
+        <v>85.51868165926813</v>
       </c>
       <c r="C20" t="n">
-        <v>63.30597487789454</v>
+        <v>59.19624379062204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B21" t="n">
-        <v>88.84578974714255</v>
+        <v>83.82635010644049</v>
       </c>
       <c r="C21" t="n">
-        <v>62.82213908862722</v>
+        <v>57.25050915377721</v>
       </c>
     </row>
   </sheetData>
